--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,6 +43,9 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -64,31 +67,40 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>happy</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>loved</t>
@@ -97,69 +109,60 @@
     <t>cooke</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>old</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
@@ -169,34 +172,34 @@
     <t>works</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>one</t>
   </si>
   <si>
     <t>use</t>
@@ -568,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2790697674418605</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +650,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,21 +674,45 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.1567567567567568</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>156</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,21 +724,21 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8985507246376812</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -723,21 +750,21 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8452012383900929</v>
+        <v>0.848297213622291</v>
       </c>
       <c r="L6">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M6">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -749,21 +776,21 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>0.7186147186147186</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -775,12 +802,12 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8">
         <v>0.7173913043478261</v>
@@ -806,16 +833,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7045454545454546</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -827,21 +854,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10">
-        <v>0.7012987012987013</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L10">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M10">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -853,21 +880,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6712328767123288</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -879,21 +906,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>0.6610169491525424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -905,21 +932,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K13">
-        <v>0.6428571428571429</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -931,21 +958,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6323529411764706</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -957,21 +984,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15">
         <v>0.6285714285714286</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -983,21 +1010,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6252006420545746</v>
+        <v>0.6268057784911717</v>
       </c>
       <c r="L16">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M16">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1009,12 +1036,12 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17">
         <v>0.625</v>
@@ -1040,16 +1067,16 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18">
-        <v>0.5915492957746479</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1061,21 +1088,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5384615384615384</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1087,47 +1114,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20">
+        <v>0.578125</v>
+      </c>
+      <c r="L20">
+        <v>37</v>
+      </c>
+      <c r="M20">
+        <v>37</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>27</v>
-      </c>
-      <c r="K20">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L20">
-        <v>35</v>
-      </c>
-      <c r="M20">
-        <v>35</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K21">
-        <v>0.53125</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1144,16 +1171,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5192307692307693</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L22">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="M22">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1165,21 +1192,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>0.4761904761904762</v>
+        <v>0.5338345864661654</v>
       </c>
       <c r="L23">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="M23">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1191,21 +1218,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K24">
-        <v>0.4730538922155689</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L24">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1217,21 +1244,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>88</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4511278195488722</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L25">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1243,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K26">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L26">
         <v>33</v>
       </c>
-      <c r="K26">
-        <v>0.4337349397590362</v>
-      </c>
-      <c r="L26">
-        <v>36</v>
-      </c>
       <c r="M26">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1269,21 +1296,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4156626506024096</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L27">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1295,21 +1322,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K28">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="L28">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M28">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1321,21 +1348,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K29">
-        <v>0.3947368421052632</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1347,21 +1374,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>0.3735408560311284</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L30">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="M30">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1373,21 +1400,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>161</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3529411764705883</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="L31">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="M31">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1399,21 +1426,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3465753424657534</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L32">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1425,21 +1452,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>477</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3423423423423423</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L33">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M33">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1451,21 +1478,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3267326732673267</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>236</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1477,21 +1504,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>68</v>
+        <v>494</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>0.3233082706766917</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L35">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1503,21 +1530,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>0.302158273381295</v>
+        <v>0.2822966507177033</v>
       </c>
       <c r="L36">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M36">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1529,21 +1556,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2966507177033493</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1555,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2561894510226049</v>
+        <v>0.2669537136706135</v>
       </c>
       <c r="L38">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M38">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1581,21 +1608,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>0.219435736677116</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L39">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1607,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>249</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>0.2134146341463415</v>
+        <v>0.2507836990595611</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1633,21 +1660,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>129</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1986754966887417</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L41">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M41">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1659,21 +1686,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1982097186700767</v>
+        <v>0.2122762148337596</v>
       </c>
       <c r="L42">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M42">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1685,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>627</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1880794701986755</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="L43">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M43">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1711,47 +1738,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44">
-        <v>0.1374570446735395</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="L44">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="M44">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>251</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1362530413625304</v>
+        <v>0.1522727272727273</v>
       </c>
       <c r="L45">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="M45">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1763,47 +1790,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K46">
-        <v>0.127027027027027</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="L46">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M46">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>323</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1217712177121771</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L47">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1815,21 +1842,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>238</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1096491228070175</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M48">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -1841,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>406</v>
+        <v>254</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K49">
-        <v>0.1045454545454545</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L49">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M49">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1867,137 +1894,137 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K50">
-        <v>0.1002865329512894</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L50">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="M50">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>628</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K51">
-        <v>0.0954653937947494</v>
+        <v>0.08590102707749767</v>
       </c>
       <c r="L51">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M51">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>379</v>
+        <v>979</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K52">
+        <v>0.08464849354375897</v>
+      </c>
+      <c r="L52">
         <v>59</v>
       </c>
-      <c r="K52">
-        <v>0.06457564575645756</v>
-      </c>
-      <c r="L52">
-        <v>35</v>
-      </c>
       <c r="M52">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>507</v>
+        <v>638</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K53">
-        <v>0.06069094304388422</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L53">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M53">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N53">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O53">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>1006</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K54">
-        <v>0.04079861111111111</v>
+        <v>0.03292894280762565</v>
       </c>
       <c r="L54">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M54">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N54">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O54">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>1105</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
